--- a/Features.xlsx
+++ b/Features.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29203"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ahmad/Documents/PhD_Project_Reports/DV/Video_Features/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dylanjohnson/Projects/KSRP/driver_emotion_labeler_gsheets/Emotion_Video_Labeler/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E261639-EDB8-1F4A-9D5C-111F89DC3F81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14CCC2E9-6890-F448-AD99-BAB51A0B426E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14360" yWindow="980" windowWidth="33660" windowHeight="16240" xr2:uid="{2D9D304A-1BD6-2841-84CC-70D0C7F30348}"/>
+    <workbookView xWindow="540" yWindow="980" windowWidth="33660" windowHeight="16240" xr2:uid="{2D9D304A-1BD6-2841-84CC-70D0C7F30348}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="40">
   <si>
     <t>Features</t>
   </si>
@@ -56,15 +56,6 @@
     <t>Drinking</t>
   </si>
   <si>
-    <t>Talking through Phone</t>
-  </si>
-  <si>
-    <t>Talking to next passenger</t>
-  </si>
-  <si>
-    <t>Listening to Music</t>
-  </si>
-  <si>
     <t>Holding_the_phone</t>
   </si>
   <si>
@@ -113,15 +104,6 @@
     <t>Time_type</t>
   </si>
   <si>
-    <t>Morning</t>
-  </si>
-  <si>
-    <t>Afternoon</t>
-  </si>
-  <si>
-    <t>Evening</t>
-  </si>
-  <si>
     <t>Gender</t>
   </si>
   <si>
@@ -153,13 +135,34 @@
   </si>
   <si>
     <t>both_no</t>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>Night</t>
+  </si>
+  <si>
+    <t>Stressed</t>
+  </si>
+  <si>
+    <t>Talking_through_phone</t>
+  </si>
+  <si>
+    <t>Talking_to_next_passeneger</t>
+  </si>
+  <si>
+    <t>Listening_to_music</t>
+  </si>
+  <si>
+    <t>self-adjustment</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -556,23 +559,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1E594EF-79A3-5744-84CB-B827500F6270}">
   <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:XFD29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="18.95"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="24.875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="25.875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.83203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="24.83203125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="25.83203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="21.95">
+    <row r="1" spans="1:3" ht="22" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -583,194 +586,199 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C5" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C6" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C7" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C8" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="C6" s="1" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C9" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="C7" s="1" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C10" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B12" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="C8" s="1" t="s">
+      <c r="C12" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="C9" s="1" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
-      <c r="B11" s="4" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="1" t="s">
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C16" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C17" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
-      <c r="C12" s="1" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C20" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C21" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C22" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C23" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="C13" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="C14" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="C15" s="1" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C24" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
-      <c r="C16" s="1" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C25" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="2" t="s">
+      <c r="B27" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="C19" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="C20" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="C21" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="C22" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="C23" s="1" t="s">
+      <c r="C27" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="2" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C28" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="4" t="s">
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C29" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C26" s="1" t="s">
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B31" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="C27" s="1" t="s">
+      <c r="C31" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C32" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B34" s="4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="C28" s="1" t="s">
+      <c r="C34" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
-      <c r="B30" s="4" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C35" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C30" s="1" t="s">
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="C31" s="1" t="s">
+      <c r="B37" s="4" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="C32" s="1" t="s">
+      <c r="C37" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
-      <c r="B34" s="4" t="s">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C38" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C34" s="1" t="s">
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B40" s="4" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="C35" s="1" t="s">
+      <c r="C40" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="2" t="s">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C41" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B37" s="4" t="s">
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C42" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="C38" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="B40" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="C41" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="C42" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/Features.xlsx
+++ b/Features.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dylanjohnson/Projects/KSRP/driver_emotion_labeler_gsheets/Emotion_Video_Labeler/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dylanjohnson/Projects/KSRP/driver_emotion_labeler_streamlit/Emotion_Video_Labeler/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14CCC2E9-6890-F448-AD99-BAB51A0B426E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60C93FA3-2533-CA47-8A19-64ACEDFE4605}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="540" yWindow="980" windowWidth="33660" windowHeight="16240" xr2:uid="{2D9D304A-1BD6-2841-84CC-70D0C7F30348}"/>
+    <workbookView xWindow="540" yWindow="980" windowWidth="17220" windowHeight="16240" xr2:uid="{2D9D304A-1BD6-2841-84CC-70D0C7F30348}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="41">
   <si>
     <t>Features</t>
   </si>
@@ -156,6 +156,9 @@
   </si>
   <si>
     <t>self-adjustment</t>
+  </si>
+  <si>
+    <t>Middle_aged</t>
   </si>
 </sst>
 </file>
@@ -557,10 +560,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1E594EF-79A3-5744-84CB-B827500F6270}">
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -659,125 +662,135 @@
         <v>13</v>
       </c>
     </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C18" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+      <c r="C19" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B21" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C20" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C21" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C22" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C23" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C24" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C25" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C26" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B28" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C28" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C29" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C30" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B31" s="4" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B32" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C32" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C32" s="1" t="s">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C33" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B34" s="4" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B35" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C35" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C35" s="1" t="s">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C36" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B38" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C38" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C38" s="1" t="s">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C39" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C40" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B40" s="4" t="s">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B42" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C42" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C41" s="1" t="s">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C43" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C42" s="1" t="s">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C44" s="1" t="s">
         <v>32</v>
       </c>
     </row>
